--- a/Attendance/w12-14.xlsx
+++ b/Attendance/w12-14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
     <t xml:space="preserve">Név</t>
   </si>
@@ -49,6 +49,9 @@
     <t xml:space="preserve">K8HJGD</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">308186307</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t xml:space="preserve">UHV61T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">363972913</t>
@@ -262,6 +262,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -421,7 +422,7 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="X51" activeCellId="0" sqref="X51"/>
+      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -498,13 +499,15 @@
       <c r="D2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="Q2" s="6" t="n">
         <f aca="false">COUNTIF(D2:P2,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W2" s="4" t="s">
         <v>6</v>
@@ -521,7 +524,9 @@
       <c r="D3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -530,119 +535,129 @@
         <v>1</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
       <c r="Q4" s="6" t="n">
         <f aca="false">COUNTIF(D4:P4,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W4" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="Q5" s="6" t="n">
         <f aca="false">COUNTIF(D5:P5,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W5" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
       <c r="Q6" s="6" t="n">
         <f aca="false">COUNTIF(D6:P6,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="Q7" s="6" t="n">
         <f aca="false">COUNTIF(D7:P7,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="Q8" s="6" t="n">
         <f aca="false">COUNTIF(D8:P8,"1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="4" t="s">
         <v>25</v>
@@ -659,13 +674,15 @@
       <c r="D9" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="5"/>
+      <c r="E9" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
       <c r="Q9" s="6" t="n">
         <f aca="false">COUNTIF(D9:P9,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W9" s="4" t="s">
         <v>28</v>
@@ -682,13 +699,15 @@
       <c r="D10" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E10" s="5"/>
+      <c r="E10" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
       <c r="Q10" s="6" t="n">
         <f aca="false">COUNTIF(D10:P10,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W10" s="4" t="s">
         <v>31</v>
@@ -705,13 +724,15 @@
       <c r="D11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
       <c r="Q11" s="6" t="n">
         <f aca="false">COUNTIF(D11:P11,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W11" s="4" t="s">
         <v>34</v>
@@ -728,13 +749,15 @@
       <c r="D12" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E12" s="5"/>
+      <c r="E12" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
       <c r="Q12" s="6" t="n">
         <f aca="false">COUNTIF(D12:P12,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>37</v>
@@ -751,13 +774,15 @@
       <c r="D13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="5"/>
+      <c r="E13" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="Q13" s="6" t="n">
         <f aca="false">COUNTIF(D13:P13,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>40</v>
@@ -774,13 +799,15 @@
       <c r="D14" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="5"/>
+      <c r="E14" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
       <c r="Q14" s="6" t="n">
         <f aca="false">COUNTIF(D14:P14,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>43</v>
@@ -795,15 +822,17 @@
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E15" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
       <c r="Q15" s="6" t="n">
         <f aca="false">COUNTIF(D15:P15,"1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>46</v>
@@ -820,13 +849,15 @@
       <c r="D16" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
       <c r="Q16" s="6" t="n">
         <f aca="false">COUNTIF(D16:P16,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>49</v>
@@ -843,13 +874,15 @@
       <c r="D17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="Q17" s="6" t="n">
         <f aca="false">COUNTIF(D17:P17,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>52</v>
@@ -866,13 +899,15 @@
       <c r="D18" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="5"/>
+      <c r="E18" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
       <c r="Q18" s="6" t="n">
         <f aca="false">COUNTIF(D18:P18,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>55</v>
@@ -887,15 +922,17 @@
       </c>
       <c r="C19" s="5"/>
       <c r="D19" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E19" s="5"/>
+        <v>9</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
       <c r="Q19" s="6" t="n">
         <f aca="false">COUNTIF(D19:P19,"1")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>58</v>
@@ -912,13 +949,15 @@
       <c r="D20" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
       <c r="Q20" s="6" t="n">
         <f aca="false">COUNTIF(D20:P20,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W20" s="4" t="s">
         <v>61</v>
@@ -935,13 +974,15 @@
       <c r="D21" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
       <c r="Q21" s="6" t="n">
         <f aca="false">COUNTIF(D21:P21,"1")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>64</v>

--- a/Attendance/w12-14.xlsx
+++ b/Attendance/w12-14.xlsx
@@ -22,196 +22,196 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
   <si>
+    <t xml:space="preserve">Neptun kód</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiányzás</t>
+  </si>
+  <si>
     <t xml:space="preserve">Név</t>
   </si>
   <si>
-    <t xml:space="preserve">Neptun kód</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jelenlét</t>
+    <t xml:space="preserve">YXI8DJ</t>
   </si>
   <si>
     <t xml:space="preserve">Ferencsik Dorina Kinga</t>
   </si>
   <si>
-    <t xml:space="preserve">YXI8DJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">1</t>
   </si>
   <si>
     <t xml:space="preserve">363964489</t>
   </si>
   <si>
+    <t xml:space="preserve">K8HJGD</t>
+  </si>
+  <si>
     <t xml:space="preserve">Gönczi Viktor</t>
   </si>
   <si>
-    <t xml:space="preserve">K8HJGD</t>
-  </si>
-  <si>
     <t xml:space="preserve">0</t>
   </si>
   <si>
     <t xml:space="preserve">308186307</t>
   </si>
   <si>
+    <t xml:space="preserve">ASL7ZK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Horák Rajmund</t>
   </si>
   <si>
-    <t xml:space="preserve">ASL7ZK</t>
-  </si>
-  <si>
     <t xml:space="preserve">363968699</t>
   </si>
   <si>
+    <t xml:space="preserve">FWIY50</t>
+  </si>
+  <si>
     <t xml:space="preserve">Juhász Lilla</t>
   </si>
   <si>
-    <t xml:space="preserve">FWIY50</t>
-  </si>
-  <si>
     <t xml:space="preserve">336235073</t>
   </si>
   <si>
+    <t xml:space="preserve">KYDK4Z</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kása Dániel Zoltán</t>
   </si>
   <si>
-    <t xml:space="preserve">KYDK4Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">363971197</t>
   </si>
   <si>
+    <t xml:space="preserve">PRSHNG</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kékedi Krisztián</t>
   </si>
   <si>
-    <t xml:space="preserve">PRSHNG</t>
-  </si>
-  <si>
     <t xml:space="preserve">308187960</t>
   </si>
   <si>
+    <t xml:space="preserve">UHV61T</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kiss Áron</t>
   </si>
   <si>
-    <t xml:space="preserve">UHV61T</t>
-  </si>
-  <si>
     <t xml:space="preserve">363972913</t>
   </si>
   <si>
+    <t xml:space="preserve">CDTD5F</t>
+  </si>
+  <si>
     <t xml:space="preserve">Makkai Márk</t>
   </si>
   <si>
-    <t xml:space="preserve">CDTD5F</t>
-  </si>
-  <si>
     <t xml:space="preserve">363975165</t>
   </si>
   <si>
+    <t xml:space="preserve">O60B05</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nagy Valter László</t>
   </si>
   <si>
-    <t xml:space="preserve">O60B05</t>
-  </si>
-  <si>
     <t xml:space="preserve">363960022</t>
   </si>
   <si>
+    <t xml:space="preserve">WLM9W8</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nussbaumer Alex</t>
   </si>
   <si>
-    <t xml:space="preserve">WLM9W8</t>
-  </si>
-  <si>
     <t xml:space="preserve">336236071</t>
   </si>
   <si>
+    <t xml:space="preserve">PXCZCK</t>
+  </si>
+  <si>
     <t xml:space="preserve">Nyitrai Balázs</t>
   </si>
   <si>
-    <t xml:space="preserve">PXCZCK</t>
-  </si>
-  <si>
     <t xml:space="preserve">363968404</t>
   </si>
   <si>
+    <t xml:space="preserve">O1GLFP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Papp Mihály</t>
   </si>
   <si>
-    <t xml:space="preserve">O1GLFP</t>
-  </si>
-  <si>
     <t xml:space="preserve">363960552</t>
   </si>
   <si>
+    <t xml:space="preserve">V6AP37</t>
+  </si>
+  <si>
     <t xml:space="preserve">Pásztor Bence</t>
   </si>
   <si>
-    <t xml:space="preserve">V6AP37</t>
-  </si>
-  <si>
     <t xml:space="preserve">363960649</t>
   </si>
   <si>
+    <t xml:space="preserve">GCFA4K</t>
+  </si>
+  <si>
     <t xml:space="preserve">Putnóczki Fanni</t>
   </si>
   <si>
-    <t xml:space="preserve">GCFA4K</t>
-  </si>
-  <si>
     <t xml:space="preserve">363965773</t>
   </si>
   <si>
+    <t xml:space="preserve">MDBAFO</t>
+  </si>
+  <si>
     <t xml:space="preserve">Sajó András</t>
   </si>
   <si>
-    <t xml:space="preserve">MDBAFO</t>
-  </si>
-  <si>
     <t xml:space="preserve">363969286</t>
   </si>
   <si>
+    <t xml:space="preserve">D7ITL3</t>
+  </si>
+  <si>
     <t xml:space="preserve">Süle Ábel</t>
   </si>
   <si>
-    <t xml:space="preserve">D7ITL3</t>
-  </si>
-  <si>
     <t xml:space="preserve">363961661</t>
   </si>
   <si>
+    <t xml:space="preserve">G0XXTC</t>
+  </si>
+  <si>
     <t xml:space="preserve">Szacsuri Norbert</t>
   </si>
   <si>
-    <t xml:space="preserve">G0XXTC</t>
-  </si>
-  <si>
     <t xml:space="preserve">363967552</t>
   </si>
   <si>
+    <t xml:space="preserve">BB89VX</t>
+  </si>
+  <si>
     <t xml:space="preserve">Szemán Balázs</t>
   </si>
   <si>
-    <t xml:space="preserve">BB89VX</t>
-  </si>
-  <si>
     <t xml:space="preserve">363970592</t>
   </si>
   <si>
+    <t xml:space="preserve">AZCTJJ</t>
+  </si>
+  <si>
     <t xml:space="preserve">Szeszák Ádám</t>
   </si>
   <si>
-    <t xml:space="preserve">AZCTJJ</t>
-  </si>
-  <si>
     <t xml:space="preserve">336240453</t>
   </si>
   <si>
+    <t xml:space="preserve">M6N0DP</t>
+  </si>
+  <si>
     <t xml:space="preserve">Vass Dávid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M6N0DP</t>
   </si>
   <si>
     <t xml:space="preserve">363958230</t>
@@ -226,7 +226,7 @@
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
     <numFmt numFmtId="166" formatCode="@"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -256,6 +256,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -313,12 +320,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -338,7 +349,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -422,14 +437,14 @@
   <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="11.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="0" width="11.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="8.51"/>
@@ -441,550 +456,610 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="n">
+      <c r="D1" s="3" t="n">
         <v>43355</v>
       </c>
-      <c r="E1" s="2" t="n">
+      <c r="E1" s="3" t="n">
         <v>43369</v>
       </c>
-      <c r="F1" s="2" t="n">
+      <c r="F1" s="3" t="n">
         <v>43376</v>
       </c>
-      <c r="G1" s="2" t="n">
+      <c r="G1" s="3" t="n">
         <v>43383</v>
       </c>
-      <c r="H1" s="2" t="n">
+      <c r="H1" s="3" t="n">
         <v>43390</v>
       </c>
-      <c r="I1" s="3" t="n">
+      <c r="I1" s="4" t="n">
         <v>43397</v>
       </c>
-      <c r="J1" s="3" t="n">
+      <c r="J1" s="4" t="n">
         <v>43404</v>
       </c>
-      <c r="K1" s="3" t="n">
+      <c r="K1" s="4" t="n">
         <v>43411</v>
       </c>
-      <c r="L1" s="3" t="n">
+      <c r="L1" s="4" t="n">
         <v>43418</v>
       </c>
-      <c r="M1" s="3" t="n">
+      <c r="M1" s="4" t="n">
         <v>43425</v>
       </c>
-      <c r="N1" s="3" t="n">
+      <c r="N1" s="4" t="n">
         <v>43432</v>
       </c>
-      <c r="O1" s="3" t="n">
+      <c r="O1" s="4" t="n">
         <v>43439</v>
       </c>
-      <c r="P1" s="3" t="n">
+      <c r="P1" s="4" t="n">
         <v>43446</v>
       </c>
-      <c r="W1" s="4"/>
+      <c r="W1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="Q2" s="6" t="n">
+      <c r="D2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="Q2" s="8" t="n">
         <f aca="false">COUNTIF(D2:P2,"1")</f>
         <v>2</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="Q3" s="6" t="n">
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="Q3" s="8" t="n">
         <f aca="false">COUNTIF(D3:P3,"1")</f>
         <v>1</v>
       </c>
-      <c r="W3" s="4" t="s">
+      <c r="W3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="Q4" s="6" t="n">
+      <c r="D4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="Q4" s="8" t="n">
         <f aca="false">COUNTIF(D4:P4,"1")</f>
         <v>2</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="Q5" s="6" t="n">
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="Q5" s="8" t="n">
         <f aca="false">COUNTIF(D5:P5,"1")</f>
         <v>2</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="Q6" s="6" t="n">
+      <c r="D6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="Q6" s="8" t="n">
         <f aca="false">COUNTIF(D6:P6,"1")</f>
         <v>2</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="Q7" s="6" t="n">
+      <c r="D7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="Q7" s="8" t="n">
         <f aca="false">COUNTIF(D7:P7,"1")</f>
         <v>2</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="Q8" s="6" t="n">
+      <c r="E8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="Q8" s="8" t="n">
         <f aca="false">COUNTIF(D8:P8,"1")</f>
         <v>1</v>
       </c>
-      <c r="W8" s="4" t="s">
+      <c r="W8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="Q9" s="6" t="n">
+      <c r="D9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="Q9" s="8" t="n">
         <f aca="false">COUNTIF(D9:P9,"1")</f>
         <v>2</v>
       </c>
-      <c r="W9" s="4" t="s">
+      <c r="W9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="Q10" s="6" t="n">
+      <c r="D10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="Q10" s="8" t="n">
         <f aca="false">COUNTIF(D10:P10,"1")</f>
         <v>2</v>
       </c>
-      <c r="W10" s="4" t="s">
+      <c r="W10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="Q11" s="6" t="n">
+      <c r="D11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="Q11" s="8" t="n">
         <f aca="false">COUNTIF(D11:P11,"1")</f>
         <v>2</v>
       </c>
-      <c r="W11" s="4" t="s">
+      <c r="W11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="Q12" s="6" t="n">
+      <c r="D12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="Q12" s="8" t="n">
         <f aca="false">COUNTIF(D12:P12,"1")</f>
         <v>2</v>
       </c>
-      <c r="W12" s="4" t="s">
+      <c r="W12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="Q13" s="6" t="n">
+      <c r="D13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="Q13" s="8" t="n">
         <f aca="false">COUNTIF(D13:P13,"1")</f>
         <v>2</v>
       </c>
-      <c r="W13" s="4" t="s">
+      <c r="W13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="Q14" s="6" t="n">
+      <c r="D14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="Q14" s="8" t="n">
         <f aca="false">COUNTIF(D14:P14,"1")</f>
         <v>2</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="W14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-      <c r="Q15" s="6" t="n">
+      <c r="E15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="Q15" s="8" t="n">
         <f aca="false">COUNTIF(D15:P15,"1")</f>
         <v>1</v>
       </c>
-      <c r="W15" s="4" t="s">
+      <c r="W15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-      <c r="Q16" s="6" t="n">
+      <c r="D16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="Q16" s="8" t="n">
         <f aca="false">COUNTIF(D16:P16,"1")</f>
         <v>2</v>
       </c>
-      <c r="W16" s="4" t="s">
+      <c r="W16" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="Q17" s="6" t="n">
+      <c r="D17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="Q17" s="8" t="n">
         <f aca="false">COUNTIF(D17:P17,"1")</f>
         <v>2</v>
       </c>
-      <c r="W17" s="4" t="s">
+      <c r="W17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="Q18" s="6" t="n">
+      <c r="D18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="Q18" s="8" t="n">
         <f aca="false">COUNTIF(D18:P18,"1")</f>
         <v>2</v>
       </c>
-      <c r="W18" s="4" t="s">
+      <c r="W18" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-      <c r="Q19" s="6" t="n">
+      <c r="E19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="Q19" s="8" t="n">
         <f aca="false">COUNTIF(D19:P19,"1")</f>
         <v>1</v>
       </c>
-      <c r="W19" s="4" t="s">
+      <c r="W19" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="Q20" s="6" t="n">
+      <c r="D20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="Q20" s="8" t="n">
         <f aca="false">COUNTIF(D20:P20,"1")</f>
         <v>2</v>
       </c>
-      <c r="W20" s="4" t="s">
+      <c r="W20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="7" t="n">
+        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="Q21" s="6" t="n">
+      <c r="D21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="Q21" s="8" t="n">
         <f aca="false">COUNTIF(D21:P21,"1")</f>
         <v>2</v>
       </c>
-      <c r="W21" s="4" t="s">
+      <c r="W21" s="5" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Attendance/w12-14.xlsx
+++ b/Attendance/w12-14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -263,6 +263,7 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -434,22 +435,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W21"/>
+  <dimension ref="A1:X21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B24" activeCellId="0" sqref="B24"/>
+      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="9" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="22" min="17" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="23" min="23" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="24" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="10" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="23" min="18" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="24" min="24" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="25" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -463,52 +464,52 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="n">
+        <v>43376</v>
+      </c>
+      <c r="E1" s="3" t="n">
         <v>43355</v>
       </c>
-      <c r="E1" s="3" t="n">
+      <c r="F1" s="3" t="n">
         <v>43369</v>
       </c>
-      <c r="F1" s="3" t="n">
-        <v>43376</v>
-      </c>
-      <c r="G1" s="3" t="n">
+      <c r="H1" s="3" t="n">
         <v>43383</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="I1" s="3" t="n">
         <v>43390</v>
       </c>
-      <c r="I1" s="4" t="n">
+      <c r="J1" s="4" t="n">
         <v>43397</v>
       </c>
-      <c r="J1" s="4" t="n">
+      <c r="K1" s="4" t="n">
         <v>43404</v>
       </c>
-      <c r="K1" s="4" t="n">
+      <c r="L1" s="4" t="n">
         <v>43411</v>
       </c>
-      <c r="L1" s="4" t="n">
+      <c r="M1" s="4" t="n">
         <v>43418</v>
       </c>
-      <c r="M1" s="4" t="n">
+      <c r="N1" s="4" t="n">
         <v>43425</v>
       </c>
-      <c r="N1" s="4" t="n">
+      <c r="O1" s="4" t="n">
         <v>43432</v>
       </c>
-      <c r="O1" s="4" t="n">
+      <c r="P1" s="4" t="n">
         <v>43439</v>
       </c>
-      <c r="P1" s="4" t="n">
+      <c r="Q1" s="4" t="n">
         <v>43446</v>
       </c>
-      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D2:I2,"0")&gt;4,"aláírás megtagadva", COUNTIF(D2:I2, "0"))</f>
+        <f aca="false">IF(COUNTIF(C2:J2,"0")&gt;4,"aláírás megtagadva", COUNTIF(C2:J2, "0"))</f>
         <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
@@ -520,14 +521,17 @@
       <c r="E2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="6"/>
+      <c r="F2" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="Q2" s="8" t="n">
-        <f aca="false">COUNTIF(D2:P2,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W2" s="5" t="s">
+      <c r="I2" s="6"/>
+      <c r="R2" s="8" t="n">
+        <f aca="false">COUNTIF(E2:Q2,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>6</v>
       </c>
     </row>
@@ -536,7 +540,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D3:I3,"0")&gt;4,"aláírás megtagadva", COUNTIF(D3:I3, "0"))</f>
+        <f aca="false">IF(COUNTIF(C3:J3,"0")&gt;4,"aláírás megtagadva", COUNTIF(C3:J3, "0"))</f>
         <v>1</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -546,16 +550,19 @@
         <v>5</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
-      <c r="Q3" s="8" t="n">
-        <f aca="false">COUNTIF(D3:P3,"1")</f>
+      <c r="I3" s="6"/>
+      <c r="R3" s="8" t="n">
+        <f aca="false">COUNTIF(E3:Q3,"1")</f>
         <v>1</v>
       </c>
-      <c r="W3" s="5" t="s">
+      <c r="X3" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -564,7 +571,7 @@
         <v>11</v>
       </c>
       <c r="B4" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D4:I4,"0")&gt;4,"aláírás megtagadva", COUNTIF(D4:I4, "0"))</f>
+        <f aca="false">IF(COUNTIF(C4:J4,"0")&gt;4,"aláírás megtagadva", COUNTIF(C4:J4, "0"))</f>
         <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -576,14 +583,17 @@
       <c r="E4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="6"/>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
-      <c r="Q4" s="8" t="n">
-        <f aca="false">COUNTIF(D4:P4,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W4" s="5" t="s">
+      <c r="I4" s="6"/>
+      <c r="R4" s="8" t="n">
+        <f aca="false">COUNTIF(E4:Q4,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X4" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -592,7 +602,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D5:I5,"0")&gt;4,"aláírás megtagadva", COUNTIF(D5:I5, "0"))</f>
+        <f aca="false">IF(COUNTIF(C5:J5,"0")&gt;4,"aláírás megtagadva", COUNTIF(C5:J5, "0"))</f>
         <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -604,14 +614,17 @@
       <c r="E5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="6"/>
+      <c r="F5" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
-      <c r="Q5" s="8" t="n">
-        <f aca="false">COUNTIF(D5:P5,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W5" s="5" t="s">
+      <c r="I5" s="6"/>
+      <c r="R5" s="8" t="n">
+        <f aca="false">COUNTIF(E5:Q5,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
@@ -620,7 +633,7 @@
         <v>17</v>
       </c>
       <c r="B6" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D6:I6,"0")&gt;4,"aláírás megtagadva", COUNTIF(D6:I6, "0"))</f>
+        <f aca="false">IF(COUNTIF(C6:J6,"0")&gt;4,"aláírás megtagadva", COUNTIF(C6:J6, "0"))</f>
         <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -632,14 +645,17 @@
       <c r="E6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="6"/>
+      <c r="F6" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G6" s="6"/>
       <c r="H6" s="6"/>
-      <c r="Q6" s="8" t="n">
-        <f aca="false">COUNTIF(D6:P6,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W6" s="5" t="s">
+      <c r="I6" s="6"/>
+      <c r="R6" s="8" t="n">
+        <f aca="false">COUNTIF(E6:Q6,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X6" s="5" t="s">
         <v>19</v>
       </c>
     </row>
@@ -648,7 +664,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D7:I7,"0")&gt;4,"aláírás megtagadva", COUNTIF(D7:I7, "0"))</f>
+        <f aca="false">IF(COUNTIF(C7:J7,"0")&gt;4,"aláírás megtagadva", COUNTIF(C7:J7, "0"))</f>
         <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -660,14 +676,17 @@
       <c r="E7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
-      <c r="Q7" s="8" t="n">
-        <f aca="false">COUNTIF(D7:P7,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W7" s="5" t="s">
+      <c r="I7" s="6"/>
+      <c r="R7" s="8" t="n">
+        <f aca="false">COUNTIF(E7:Q7,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X7" s="5" t="s">
         <v>22</v>
       </c>
     </row>
@@ -676,26 +695,29 @@
         <v>23</v>
       </c>
       <c r="B8" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D8:I8,"0")&gt;4,"aláírás megtagadva", COUNTIF(D8:I8, "0"))</f>
+        <f aca="false">IF(COUNTIF(C8:J8,"0")&gt;4,"aláírás megtagadva", COUNTIF(C8:J8, "0"))</f>
         <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
-      <c r="Q8" s="8" t="n">
-        <f aca="false">COUNTIF(D8:P8,"1")</f>
+      <c r="I8" s="6"/>
+      <c r="R8" s="8" t="n">
+        <f aca="false">COUNTIF(E8:Q8,"1")</f>
         <v>1</v>
       </c>
-      <c r="W8" s="5" t="s">
+      <c r="X8" s="5" t="s">
         <v>25</v>
       </c>
     </row>
@@ -704,7 +726,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D9:I9,"0")&gt;4,"aláírás megtagadva", COUNTIF(D9:I9, "0"))</f>
+        <f aca="false">IF(COUNTIF(C9:J9,"0")&gt;4,"aláírás megtagadva", COUNTIF(C9:J9, "0"))</f>
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -716,14 +738,17 @@
       <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
-      <c r="Q9" s="8" t="n">
-        <f aca="false">COUNTIF(D9:P9,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W9" s="5" t="s">
+      <c r="I9" s="6"/>
+      <c r="R9" s="8" t="n">
+        <f aca="false">COUNTIF(E9:Q9,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X9" s="5" t="s">
         <v>28</v>
       </c>
     </row>
@@ -732,7 +757,7 @@
         <v>29</v>
       </c>
       <c r="B10" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D10:I10,"0")&gt;4,"aláírás megtagadva", COUNTIF(D10:I10, "0"))</f>
+        <f aca="false">IF(COUNTIF(C10:J10,"0")&gt;4,"aláírás megtagadva", COUNTIF(C10:J10, "0"))</f>
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -744,14 +769,17 @@
       <c r="E10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="6"/>
+      <c r="F10" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
-      <c r="Q10" s="8" t="n">
-        <f aca="false">COUNTIF(D10:P10,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W10" s="5" t="s">
+      <c r="I10" s="6"/>
+      <c r="R10" s="8" t="n">
+        <f aca="false">COUNTIF(E10:Q10,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -760,26 +788,29 @@
         <v>32</v>
       </c>
       <c r="B11" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D11:I11,"0")&gt;4,"aláírás megtagadva", COUNTIF(D11:I11, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C11:J11,"0")&gt;4,"aláírás megtagadva", COUNTIF(C11:J11, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
-      <c r="Q11" s="8" t="n">
-        <f aca="false">COUNTIF(D11:P11,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W11" s="5" t="s">
+      <c r="I11" s="6"/>
+      <c r="R11" s="8" t="n">
+        <f aca="false">COUNTIF(E11:Q11,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X11" s="5" t="s">
         <v>34</v>
       </c>
     </row>
@@ -788,7 +819,7 @@
         <v>35</v>
       </c>
       <c r="B12" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D12:I12,"0")&gt;4,"aláírás megtagadva", COUNTIF(D12:I12, "0"))</f>
+        <f aca="false">IF(COUNTIF(C12:J12,"0")&gt;4,"aláírás megtagadva", COUNTIF(C12:J12, "0"))</f>
         <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -800,14 +831,17 @@
       <c r="E12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
-      <c r="Q12" s="8" t="n">
-        <f aca="false">COUNTIF(D12:P12,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W12" s="5" t="s">
+      <c r="I12" s="6"/>
+      <c r="R12" s="8" t="n">
+        <f aca="false">COUNTIF(E12:Q12,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X12" s="5" t="s">
         <v>37</v>
       </c>
     </row>
@@ -816,7 +850,7 @@
         <v>38</v>
       </c>
       <c r="B13" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D13:I13,"0")&gt;4,"aláírás megtagadva", COUNTIF(D13:I13, "0"))</f>
+        <f aca="false">IF(COUNTIF(C13:J13,"0")&gt;4,"aláírás megtagadva", COUNTIF(C13:J13, "0"))</f>
         <v>0</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -828,14 +862,17 @@
       <c r="E13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="6"/>
+      <c r="F13" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
-      <c r="Q13" s="8" t="n">
-        <f aca="false">COUNTIF(D13:P13,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W13" s="5" t="s">
+      <c r="I13" s="6"/>
+      <c r="R13" s="8" t="n">
+        <f aca="false">COUNTIF(E13:Q13,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X13" s="5" t="s">
         <v>40</v>
       </c>
     </row>
@@ -844,7 +881,7 @@
         <v>41</v>
       </c>
       <c r="B14" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D14:I14,"0")&gt;4,"aláírás megtagadva", COUNTIF(D14:I14, "0"))</f>
+        <f aca="false">IF(COUNTIF(C14:J14,"0")&gt;4,"aláírás megtagadva", COUNTIF(C14:J14, "0"))</f>
         <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -856,14 +893,17 @@
       <c r="E14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F14" s="6"/>
+      <c r="F14" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
-      <c r="Q14" s="8" t="n">
-        <f aca="false">COUNTIF(D14:P14,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W14" s="5" t="s">
+      <c r="I14" s="6"/>
+      <c r="R14" s="8" t="n">
+        <f aca="false">COUNTIF(E14:Q14,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X14" s="5" t="s">
         <v>43</v>
       </c>
     </row>
@@ -872,26 +912,29 @@
         <v>44</v>
       </c>
       <c r="B15" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D15:I15,"0")&gt;4,"aláírás megtagadva", COUNTIF(D15:I15, "0"))</f>
+        <f aca="false">IF(COUNTIF(C15:J15,"0")&gt;4,"aláírás megtagadva", COUNTIF(C15:J15, "0"))</f>
         <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
-      <c r="Q15" s="8" t="n">
-        <f aca="false">COUNTIF(D15:P15,"1")</f>
+      <c r="I15" s="6"/>
+      <c r="R15" s="8" t="n">
+        <f aca="false">COUNTIF(E15:Q15,"1")</f>
         <v>1</v>
       </c>
-      <c r="W15" s="5" t="s">
+      <c r="X15" s="5" t="s">
         <v>46</v>
       </c>
     </row>
@@ -900,7 +943,7 @@
         <v>47</v>
       </c>
       <c r="B16" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D16:I16,"0")&gt;4,"aláírás megtagadva", COUNTIF(D16:I16, "0"))</f>
+        <f aca="false">IF(COUNTIF(C16:J16,"0")&gt;4,"aláírás megtagadva", COUNTIF(C16:J16, "0"))</f>
         <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -912,14 +955,17 @@
       <c r="E16" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
-      <c r="Q16" s="8" t="n">
-        <f aca="false">COUNTIF(D16:P16,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W16" s="5" t="s">
+      <c r="I16" s="6"/>
+      <c r="R16" s="8" t="n">
+        <f aca="false">COUNTIF(E16:Q16,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X16" s="5" t="s">
         <v>49</v>
       </c>
     </row>
@@ -928,7 +974,7 @@
         <v>50</v>
       </c>
       <c r="B17" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D17:I17,"0")&gt;4,"aláírás megtagadva", COUNTIF(D17:I17, "0"))</f>
+        <f aca="false">IF(COUNTIF(C17:J17,"0")&gt;4,"aláírás megtagadva", COUNTIF(C17:J17, "0"))</f>
         <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -940,14 +986,17 @@
       <c r="E17" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F17" s="6"/>
+      <c r="F17" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G17" s="6"/>
       <c r="H17" s="6"/>
-      <c r="Q17" s="8" t="n">
-        <f aca="false">COUNTIF(D17:P17,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W17" s="5" t="s">
+      <c r="I17" s="6"/>
+      <c r="R17" s="8" t="n">
+        <f aca="false">COUNTIF(E17:Q17,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X17" s="5" t="s">
         <v>52</v>
       </c>
     </row>
@@ -956,26 +1005,29 @@
         <v>53</v>
       </c>
       <c r="B18" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D18:I18,"0")&gt;4,"aláírás megtagadva", COUNTIF(D18:I18, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C18:J18,"0")&gt;4,"aláírás megtagadva", COUNTIF(C18:J18, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F18" s="6"/>
+      <c r="F18" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
-      <c r="Q18" s="8" t="n">
-        <f aca="false">COUNTIF(D18:P18,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W18" s="5" t="s">
+      <c r="I18" s="6"/>
+      <c r="R18" s="8" t="n">
+        <f aca="false">COUNTIF(E18:Q18,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X18" s="5" t="s">
         <v>55</v>
       </c>
     </row>
@@ -984,26 +1036,29 @@
         <v>56</v>
       </c>
       <c r="B19" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D19:I19,"0")&gt;4,"aláírás megtagadva", COUNTIF(D19:I19, "0"))</f>
+        <f aca="false">IF(COUNTIF(C19:J19,"0")&gt;4,"aláírás megtagadva", COUNTIF(C19:J19, "0"))</f>
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6"/>
+      <c r="F19" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
-      <c r="Q19" s="8" t="n">
-        <f aca="false">COUNTIF(D19:P19,"1")</f>
+      <c r="I19" s="6"/>
+      <c r="R19" s="8" t="n">
+        <f aca="false">COUNTIF(E19:Q19,"1")</f>
         <v>1</v>
       </c>
-      <c r="W19" s="5" t="s">
+      <c r="X19" s="5" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1012,26 +1067,29 @@
         <v>59</v>
       </c>
       <c r="B20" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D20:I20,"0")&gt;4,"aláírás megtagadva", COUNTIF(D20:I20, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C20:J20,"0")&gt;4,"aláírás megtagadva", COUNTIF(C20:J20, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E20" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
-      <c r="Q20" s="8" t="n">
-        <f aca="false">COUNTIF(D20:P20,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W20" s="5" t="s">
+      <c r="I20" s="6"/>
+      <c r="R20" s="8" t="n">
+        <f aca="false">COUNTIF(E20:Q20,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X20" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1040,7 +1098,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="7" t="n">
-        <f aca="false">IF(COUNTIF(D21:I21,"0")&gt;4,"aláírás megtagadva", COUNTIF(D21:I21, "0"))</f>
+        <f aca="false">IF(COUNTIF(C21:J21,"0")&gt;4,"aláírás megtagadva", COUNTIF(C21:J21, "0"))</f>
         <v>0</v>
       </c>
       <c r="C21" s="6" t="s">
@@ -1052,14 +1110,17 @@
       <c r="E21" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="F21" s="6"/>
+      <c r="F21" s="6" t="s">
+        <v>5</v>
+      </c>
       <c r="G21" s="6"/>
       <c r="H21" s="6"/>
-      <c r="Q21" s="8" t="n">
-        <f aca="false">COUNTIF(D21:P21,"1")</f>
-        <v>2</v>
-      </c>
-      <c r="W21" s="5" t="s">
+      <c r="I21" s="6"/>
+      <c r="R21" s="8" t="n">
+        <f aca="false">COUNTIF(E21:Q21,"1")</f>
+        <v>2</v>
+      </c>
+      <c r="X21" s="5" t="s">
         <v>64</v>
       </c>
     </row>

--- a/Attendance/w12-14.xlsx
+++ b/Attendance/w12-14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -31,6 +31,9 @@
     <t xml:space="preserve">Név</t>
   </si>
   <si>
+    <t xml:space="preserve">github car</t>
+  </si>
+  <si>
     <t xml:space="preserve">YXI8DJ</t>
   </si>
   <si>
@@ -38,6 +41,9 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -280,7 +286,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -291,6 +297,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFCCCCFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFED1C24"/>
+        <bgColor rgb="FFCE181E"/>
       </patternFill>
     </fill>
   </fills>
@@ -328,7 +340,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -361,6 +373,10 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -378,7 +394,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FFED1C24"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -428,7 +444,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -442,10 +458,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:AB21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -453,11 +469,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="12" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="25" min="20" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="26" min="26" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="22" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -474,707 +492,831 @@
         <v>43383</v>
       </c>
       <c r="E1" s="3" t="n">
+        <v>43397</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="n">
         <v>43390</v>
       </c>
-      <c r="F1" s="3" t="n">
+      <c r="H1" s="3" t="n">
         <v>43376</v>
       </c>
-      <c r="G1" s="3" t="n">
+      <c r="I1" s="3" t="n">
         <v>43355</v>
       </c>
-      <c r="H1" s="3" t="n">
+      <c r="J1" s="3" t="n">
         <v>43369</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
       <c r="Q1" s="4"/>
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
-      <c r="Z1" s="5"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="AB1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C2:L2,"0")&gt;4,"aláírás megtagadva", COUNTIF(C2:L2, "0"))</f>
+        <f aca="false">IF(COUNTIF(C2:N2,"0")&gt;4,"aláírás megtagadva", COUNTIF(C2:N2, "0"))</f>
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
+      <c r="F2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K2" s="6"/>
-      <c r="T2" s="8"/>
-      <c r="Z2" s="5" t="s">
-        <v>7</v>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="V2" s="9"/>
+      <c r="AB2" s="5" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C3:L3,"0")&gt;4,"aláírás megtagadva", COUNTIF(C3:L3, "0"))</f>
-        <v>3</v>
+        <f aca="false">IF(COUNTIF(C3:N3,"0")&gt;4,"aláírás megtagadva", COUNTIF(C3:N3, "0"))</f>
+        <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>8</v>
+      </c>
       <c r="K3" s="6"/>
-      <c r="T3" s="8"/>
-      <c r="Z3" s="5" t="s">
-        <v>10</v>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="V3" s="9"/>
+      <c r="AB3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C4:L4,"0")&gt;4,"aláírás megtagadva", COUNTIF(C4:L4, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C4:N4,"0")&gt;4,"aláírás megtagadva", COUNTIF(C4:N4, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K4" s="6"/>
-      <c r="T4" s="8"/>
-      <c r="Z4" s="5" t="s">
-        <v>13</v>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="V4" s="9"/>
+      <c r="AB4" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C5:L5,"0")&gt;4,"aláírás megtagadva", COUNTIF(C5:L5, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C5:N5,"0")&gt;4,"aláírás megtagadva", COUNTIF(C5:N5, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K5" s="6"/>
-      <c r="T5" s="8"/>
-      <c r="Z5" s="5" t="s">
-        <v>16</v>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="V5" s="9"/>
+      <c r="AB5" s="5" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C6:L6,"0")&gt;4,"aláírás megtagadva", COUNTIF(C6:L6, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C6:N6,"0")&gt;4,"aláírás megtagadva", COUNTIF(C6:N6, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K6" s="6"/>
-      <c r="T6" s="8"/>
-      <c r="Z6" s="5" t="s">
-        <v>19</v>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="V6" s="9"/>
+      <c r="AB6" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B7" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C7:L7,"0")&gt;4,"aláírás megtagadva", COUNTIF(C7:L7, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C7:N7,"0")&gt;4,"aláírás megtagadva", COUNTIF(C7:N7, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K7" s="6"/>
-      <c r="T7" s="8"/>
-      <c r="Z7" s="5" t="s">
-        <v>22</v>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="V7" s="9"/>
+      <c r="AB7" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C8:L8,"0")&gt;4,"aláírás megtagadva", COUNTIF(C8:L8, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C8:N8,"0")&gt;4,"aláírás megtagadva", COUNTIF(C8:N8, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K8" s="6"/>
-      <c r="T8" s="8"/>
-      <c r="Z8" s="5" t="s">
-        <v>25</v>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="V8" s="9"/>
+      <c r="AB8" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B9" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C9:L9,"0")&gt;4,"aláírás megtagadva", COUNTIF(C9:L9, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C9:N9,"0")&gt;4,"aláírás megtagadva", COUNTIF(C9:N9, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K9" s="6"/>
-      <c r="T9" s="8"/>
-      <c r="Z9" s="5" t="s">
-        <v>28</v>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="V9" s="9"/>
+      <c r="AB9" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B10" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C10:L10,"0")&gt;4,"aláírás megtagadva", COUNTIF(C10:L10, "0"))</f>
+        <f aca="false">IF(COUNTIF(C10:N10,"0")&gt;4,"aláírás megtagadva", COUNTIF(C10:N10, "0"))</f>
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K10" s="6"/>
-      <c r="T10" s="8"/>
-      <c r="Z10" s="5" t="s">
-        <v>31</v>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="V10" s="9"/>
+      <c r="AB10" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B11" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C11:L11,"0")&gt;4,"aláírás megtagadva", COUNTIF(C11:L11, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C11:N11,"0")&gt;4,"aláírás megtagadva", COUNTIF(C11:N11, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K11" s="6"/>
-      <c r="T11" s="8"/>
-      <c r="Z11" s="5" t="s">
-        <v>34</v>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="V11" s="9"/>
+      <c r="AB11" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B12" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C12:L12,"0")&gt;4,"aláírás megtagadva", COUNTIF(C12:L12, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C12:N12,"0")&gt;4,"aláírás megtagadva", COUNTIF(C12:N12, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K12" s="6"/>
-      <c r="T12" s="8"/>
-      <c r="Z12" s="5" t="s">
-        <v>37</v>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="V12" s="9"/>
+      <c r="AB12" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B13" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C13:L13,"0")&gt;4,"aláírás megtagadva", COUNTIF(C13:L13, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C13:N13,"0")&gt;4,"aláírás megtagadva", COUNTIF(C13:N13, "0"))</f>
+        <v>3</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K13" s="6"/>
-      <c r="T13" s="8"/>
-      <c r="Z13" s="5" t="s">
-        <v>40</v>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="V13" s="9"/>
+      <c r="AB13" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B14" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C14:L14,"0")&gt;4,"aláírás megtagadva", COUNTIF(C14:L14, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C14:N14,"0")&gt;4,"aláírás megtagadva", COUNTIF(C14:N14, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K14" s="6"/>
-      <c r="T14" s="8"/>
-      <c r="Z14" s="5" t="s">
-        <v>43</v>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="V14" s="9"/>
+      <c r="AB14" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B15" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C15:L15,"0")&gt;4,"aláírás megtagadva", COUNTIF(C15:L15, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C15:N15,"0")&gt;4,"aláírás megtagadva", COUNTIF(C15:N15, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G15" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K15" s="6"/>
-      <c r="T15" s="8"/>
-      <c r="Z15" s="5" t="s">
-        <v>46</v>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="V15" s="9"/>
+      <c r="AB15" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C16:L16,"0")&gt;4,"aláírás megtagadva", COUNTIF(C16:L16, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C16:N16,"0")&gt;4,"aláírás megtagadva", COUNTIF(C16:N16, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K16" s="6"/>
-      <c r="T16" s="8"/>
-      <c r="Z16" s="5" t="s">
-        <v>49</v>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="V16" s="9"/>
+      <c r="AB16" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B17" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C17:L17,"0")&gt;4,"aláírás megtagadva", COUNTIF(C17:L17, "0"))</f>
-        <v>0</v>
+        <f aca="false">IF(COUNTIF(C17:N17,"0")&gt;4,"aláírás megtagadva", COUNTIF(C17:N17, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K17" s="6"/>
-      <c r="T17" s="8"/>
-      <c r="Z17" s="5" t="s">
-        <v>52</v>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="V17" s="9"/>
+      <c r="AB17" s="5" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B18" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C18:L18,"0")&gt;4,"aláírás megtagadva", COUNTIF(C18:L18, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C18:N18,"0")&gt;4,"aláírás megtagadva", COUNTIF(C18:N18, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J18" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K18" s="6"/>
-      <c r="T18" s="8"/>
-      <c r="Z18" s="5" t="s">
-        <v>55</v>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="V18" s="9"/>
+      <c r="AB18" s="5" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C19:L19,"0")&gt;4,"aláírás megtagadva", COUNTIF(C19:L19, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C19:N19,"0")&gt;4,"aláírás megtagadva", COUNTIF(C19:N19, "0"))</f>
+        <v>3</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="8" t="s">
         <v>6</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K19" s="6"/>
-      <c r="T19" s="8"/>
-      <c r="Z19" s="5" t="s">
-        <v>58</v>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="V19" s="9"/>
+      <c r="AB19" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B20" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C20:L20,"0")&gt;4,"aláírás megtagadva", COUNTIF(C20:L20, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C20:N20,"0")&gt;4,"aláírás megtagadva", COUNTIF(C20:N20, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>6</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K20" s="6"/>
-      <c r="T20" s="8"/>
-      <c r="Z20" s="5" t="s">
-        <v>61</v>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="V20" s="9"/>
+      <c r="AB20" s="5" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B21" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C21:L21,"0")&gt;4,"aláírás megtagadva", COUNTIF(C21:L21, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C21:N21,"0")&gt;4,"aláírás megtagadva", COUNTIF(C21:N21, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>8</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
+        <v>6</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>6</v>
+      </c>
       <c r="K21" s="6"/>
-      <c r="T21" s="8"/>
-      <c r="Z21" s="5" t="s">
-        <v>64</v>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="V21" s="9"/>
+      <c r="AB21" s="5" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance/w12-14.xlsx
+++ b/Attendance/w12-14.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="65">
   <si>
     <t xml:space="preserve">Neptun kód</t>
   </si>
@@ -31,9 +31,6 @@
     <t xml:space="preserve">Név</t>
   </si>
   <si>
-    <t xml:space="preserve">github car</t>
-  </si>
-  <si>
     <t xml:space="preserve">YXI8DJ</t>
   </si>
   <si>
@@ -41,9 +38,6 @@
   </si>
   <si>
     <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.5</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -286,7 +280,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -297,12 +291,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFBFBFBF"/>
         <bgColor rgb="FFCCCCFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED1C24"/>
-        <bgColor rgb="FFCE181E"/>
       </patternFill>
     </fill>
   </fills>
@@ -373,7 +361,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
@@ -394,7 +382,7 @@
     <indexedColors>
       <rgbColor rgb="FF000000"/>
       <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFED1C24"/>
+      <rgbColor rgb="FFCE181E"/>
       <rgbColor rgb="FF00FF00"/>
       <rgbColor rgb="FF0000FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -444,7 +432,7 @@
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FFCE181E"/>
+      <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
@@ -458,10 +446,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB21"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -469,13 +457,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="7" style="0" width="11.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="14" style="0" width="11.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="27" min="22" style="0" width="8.51"/>
-    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="28" min="28" style="0" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="29" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="4" style="0" width="11.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="13" style="0" width="11.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="21" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="27" min="27" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1023" min="28" style="0" width="8.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -494,23 +481,21 @@
       <c r="E1" s="3" t="n">
         <v>43397</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
+      <c r="F1" s="3" t="n">
+        <v>43390</v>
       </c>
       <c r="G1" s="3" t="n">
-        <v>43390</v>
+        <v>43376</v>
       </c>
       <c r="H1" s="3" t="n">
-        <v>43376</v>
+        <v>43355</v>
       </c>
       <c r="I1" s="3" t="n">
-        <v>43355</v>
-      </c>
-      <c r="J1" s="3" t="n">
         <v>43369</v>
       </c>
+      <c r="K1" s="3"/>
       <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
@@ -518,805 +503,746 @@
       <c r="R1" s="4"/>
       <c r="S1" s="4"/>
       <c r="T1" s="4"/>
-      <c r="U1" s="4"/>
-      <c r="AB1" s="5"/>
+      <c r="AA1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="7" t="n">
+        <f aca="false">IF(COUNTIF(C2:M2,"0")&gt;4,"aláírás megtagadva", COUNTIF(C2:M2, "0"))</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C2:N2,"0")&gt;4,"aláírás megtagadva", COUNTIF(C2:N2, "0"))</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J2" s="6"/>
       <c r="K2" s="6"/>
       <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="V2" s="9"/>
-      <c r="AB2" s="5" t="s">
-        <v>9</v>
+      <c r="U2" s="9"/>
+      <c r="AA2" s="5" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C3:N3,"0")&gt;4,"aláírás megtagadva", COUNTIF(C3:N3, "0"))</f>
+        <f aca="false">IF(COUNTIF(C3:M3,"0")&gt;4,"aláírás megtagadva", COUNTIF(C3:M3, "0"))</f>
         <v>4</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>8</v>
-      </c>
+      <c r="J3" s="6"/>
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="V3" s="9"/>
-      <c r="AB3" s="5" t="s">
-        <v>12</v>
+      <c r="U3" s="9"/>
+      <c r="AA3" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C4:N4,"0")&gt;4,"aláírás megtagadva", COUNTIF(C4:N4, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C4:M4,"0")&gt;4,"aláírás megtagadva", COUNTIF(C4:M4, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="V4" s="9"/>
-      <c r="AB4" s="5" t="s">
-        <v>15</v>
+      <c r="U4" s="9"/>
+      <c r="AA4" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B5" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C5:N5,"0")&gt;4,"aláírás megtagadva", COUNTIF(C5:N5, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C5:M5,"0")&gt;4,"aláírás megtagadva", COUNTIF(C5:M5, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="V5" s="9"/>
-      <c r="AB5" s="5" t="s">
-        <v>18</v>
+      <c r="U5" s="9"/>
+      <c r="AA5" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C6:N6,"0")&gt;4,"aláírás megtagadva", COUNTIF(C6:N6, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C6:M6,"0")&gt;4,"aláírás megtagadva", COUNTIF(C6:M6, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J6" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="V6" s="9"/>
-      <c r="AB6" s="5" t="s">
-        <v>21</v>
+      <c r="U6" s="9"/>
+      <c r="AA6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B7" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C7:N7,"0")&gt;4,"aláírás megtagadva", COUNTIF(C7:N7, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C7:M7,"0")&gt;4,"aláírás megtagadva", COUNTIF(C7:M7, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="V7" s="9"/>
-      <c r="AB7" s="5" t="s">
-        <v>24</v>
+      <c r="U7" s="9"/>
+      <c r="AA7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B8" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C8:N8,"0")&gt;4,"aláírás megtagadva", COUNTIF(C8:N8, "0"))</f>
-        <v>2</v>
+        <f aca="false">IF(COUNTIF(C8:M8,"0")&gt;4,"aláírás megtagadva", COUNTIF(C8:M8, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="V8" s="9"/>
-      <c r="AB8" s="5" t="s">
-        <v>27</v>
+      <c r="U8" s="9"/>
+      <c r="AA8" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C9:N9,"0")&gt;4,"aláírás megtagadva", COUNTIF(C9:N9, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C9:M9,"0")&gt;4,"aláírás megtagadva", COUNTIF(C9:M9, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="V9" s="9"/>
-      <c r="AB9" s="5" t="s">
-        <v>30</v>
+      <c r="U9" s="9"/>
+      <c r="AA9" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B10" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C10:N10,"0")&gt;4,"aláírás megtagadva", COUNTIF(C10:N10, "0"))</f>
+        <f aca="false">IF(COUNTIF(C10:M10,"0")&gt;4,"aláírás megtagadva", COUNTIF(C10:M10, "0"))</f>
         <v>1</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J10" s="6"/>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="V10" s="9"/>
-      <c r="AB10" s="5" t="s">
-        <v>33</v>
+      <c r="U10" s="9"/>
+      <c r="AA10" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B11" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C11:N11,"0")&gt;4,"aláírás megtagadva", COUNTIF(C11:N11, "0"))</f>
-        <v>2</v>
+        <f aca="false">IF(COUNTIF(C11:M11,"0")&gt;4,"aláírás megtagadva", COUNTIF(C11:M11, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J11" s="6"/>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="V11" s="9"/>
-      <c r="AB11" s="5" t="s">
-        <v>36</v>
+      <c r="U11" s="9"/>
+      <c r="AA11" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C12:N12,"0")&gt;4,"aláírás megtagadva", COUNTIF(C12:N12, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C12:M12,"0")&gt;4,"aláírás megtagadva", COUNTIF(C12:M12, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
-      <c r="M12" s="6"/>
-      <c r="V12" s="9"/>
-      <c r="AB12" s="5" t="s">
-        <v>39</v>
+      <c r="U12" s="9"/>
+      <c r="AA12" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B13" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C13:N13,"0")&gt;4,"aláírás megtagadva", COUNTIF(C13:N13, "0"))</f>
-        <v>3</v>
+        <f aca="false">IF(COUNTIF(C13:M13,"0")&gt;4,"aláírás megtagadva", COUNTIF(C13:M13, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I13" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="V13" s="9"/>
-      <c r="AB13" s="5" t="s">
-        <v>42</v>
+      <c r="U13" s="9"/>
+      <c r="AA13" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C14:N14,"0")&gt;4,"aláírás megtagadva", COUNTIF(C14:N14, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C14:M14,"0")&gt;4,"aláírás megtagadva", COUNTIF(C14:M14, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I14" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="V14" s="9"/>
-      <c r="AB14" s="5" t="s">
-        <v>45</v>
+      <c r="U14" s="9"/>
+      <c r="AA14" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C15:N15,"0")&gt;4,"aláírás megtagadva", COUNTIF(C15:N15, "0"))</f>
-        <v>2</v>
+        <f aca="false">IF(COUNTIF(C15:M15,"0")&gt;4,"aláírás megtagadva", COUNTIF(C15:M15, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="V15" s="9"/>
-      <c r="AB15" s="5" t="s">
-        <v>48</v>
+      <c r="U15" s="9"/>
+      <c r="AA15" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B16" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C16:N16,"0")&gt;4,"aláírás megtagadva", COUNTIF(C16:N16, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C16:M16,"0")&gt;4,"aláírás megtagadva", COUNTIF(C16:M16, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I16" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J16" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-      <c r="M16" s="6"/>
-      <c r="V16" s="9"/>
-      <c r="AB16" s="5" t="s">
-        <v>51</v>
+      <c r="U16" s="9"/>
+      <c r="AA16" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C17:N17,"0")&gt;4,"aláírás megtagadva", COUNTIF(C17:N17, "0"))</f>
-        <v>1</v>
+        <f aca="false">IF(COUNTIF(C17:M17,"0")&gt;4,"aláírás megtagadva", COUNTIF(C17:M17, "0"))</f>
+        <v>0</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I17" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="V17" s="9"/>
-      <c r="AB17" s="5" t="s">
-        <v>54</v>
+      <c r="U17" s="9"/>
+      <c r="AA17" s="5" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B18" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C18:N18,"0")&gt;4,"aláírás megtagadva", COUNTIF(C18:N18, "0"))</f>
-        <v>2</v>
+        <f aca="false">IF(COUNTIF(C18:M18,"0")&gt;4,"aláírás megtagadva", COUNTIF(C18:M18, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E18" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I18" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J18" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
       <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="V18" s="9"/>
-      <c r="AB18" s="5" t="s">
-        <v>57</v>
+      <c r="U18" s="9"/>
+      <c r="AA18" s="5" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B19" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C19:N19,"0")&gt;4,"aláírás megtagadva", COUNTIF(C19:N19, "0"))</f>
-        <v>3</v>
+        <f aca="false">IF(COUNTIF(C19:M19,"0")&gt;4,"aláírás megtagadva", COUNTIF(C19:M19, "0"))</f>
+        <v>2</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>6</v>
       </c>
       <c r="I19" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="V19" s="9"/>
-      <c r="AB19" s="5" t="s">
-        <v>60</v>
+      <c r="U19" s="9"/>
+      <c r="AA19" s="5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C20:N20,"0")&gt;4,"aláírás megtagadva", COUNTIF(C20:N20, "0"))</f>
-        <v>2</v>
+        <f aca="false">IF(COUNTIF(C20:M20,"0")&gt;4,"aláírás megtagadva", COUNTIF(C20:M20, "0"))</f>
+        <v>1</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G20" s="6" t="s">
         <v>6</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
-      <c r="M20" s="6"/>
-      <c r="V20" s="9"/>
-      <c r="AB20" s="5" t="s">
-        <v>63</v>
+      <c r="U20" s="9"/>
+      <c r="AA20" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B21" s="7" t="n">
-        <f aca="false">IF(COUNTIF(C21:N21,"0")&gt;4,"aláírás megtagadva", COUNTIF(C21:N21, "0"))</f>
+        <f aca="false">IF(COUNTIF(C21:M21,"0")&gt;4,"aláírás megtagadva", COUNTIF(C21:M21, "0"))</f>
         <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>5</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>6</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
-      <c r="M21" s="6"/>
-      <c r="V21" s="9"/>
-      <c r="AB21" s="5" t="s">
-        <v>66</v>
+      <c r="U21" s="9"/>
+      <c r="AA21" s="5" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
